--- a/SchedulingData/dynamic11/pso/scheduling2_17.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_17.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>245.34</v>
+        <v>216.18</v>
       </c>
       <c r="D2" t="n">
-        <v>296.88</v>
+        <v>278.38</v>
       </c>
       <c r="E2" t="n">
-        <v>11.972</v>
+        <v>11.872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>244.32</v>
+        <v>247.82</v>
       </c>
       <c r="D3" t="n">
-        <v>276.42</v>
+        <v>283.82</v>
       </c>
       <c r="E3" t="n">
-        <v>13.028</v>
+        <v>12.288</v>
       </c>
     </row>
     <row r="4">
@@ -504,207 +504,207 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>276.42</v>
+        <v>228.4</v>
       </c>
       <c r="D4" t="n">
-        <v>373.02</v>
+        <v>321.84</v>
       </c>
       <c r="E4" t="n">
-        <v>9.948</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>224.1</v>
+        <v>244.78</v>
       </c>
       <c r="D5" t="n">
-        <v>291.7</v>
+        <v>309.84</v>
       </c>
       <c r="E5" t="n">
-        <v>11.48</v>
+        <v>10.716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>373.02</v>
+        <v>278.38</v>
       </c>
       <c r="D6" t="n">
-        <v>441.22</v>
+        <v>334.14</v>
       </c>
       <c r="E6" t="n">
-        <v>6.708</v>
+        <v>8.896000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>296.88</v>
+        <v>244.28</v>
       </c>
       <c r="D7" t="n">
-        <v>343.78</v>
+        <v>288.56</v>
       </c>
       <c r="E7" t="n">
-        <v>9.891999999999999</v>
+        <v>13.784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>343.78</v>
+        <v>283.82</v>
       </c>
       <c r="D8" t="n">
-        <v>398.64</v>
+        <v>340.84</v>
       </c>
       <c r="E8" t="n">
-        <v>7.516</v>
+        <v>9.696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>261.14</v>
+        <v>321.84</v>
       </c>
       <c r="D9" t="n">
-        <v>306.04</v>
+        <v>394.88</v>
       </c>
       <c r="E9" t="n">
-        <v>11.016</v>
+        <v>8.292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>398.64</v>
+        <v>394.88</v>
       </c>
       <c r="D10" t="n">
-        <v>441.24</v>
+        <v>448.68</v>
       </c>
       <c r="E10" t="n">
-        <v>4.876</v>
+        <v>5.052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>441.22</v>
+        <v>288.56</v>
       </c>
       <c r="D11" t="n">
-        <v>486.52</v>
+        <v>333.42</v>
       </c>
       <c r="E11" t="n">
-        <v>4.288</v>
+        <v>11.408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>486.52</v>
+        <v>228.1</v>
       </c>
       <c r="D12" t="n">
-        <v>555.1799999999999</v>
+        <v>294.7</v>
       </c>
       <c r="E12" t="n">
-        <v>1.532</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>555.1799999999999</v>
+        <v>340.84</v>
       </c>
       <c r="D13" t="n">
-        <v>653.42</v>
+        <v>373.34</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>7.576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>441.24</v>
+        <v>294.7</v>
       </c>
       <c r="D14" t="n">
-        <v>499.14</v>
+        <v>337.36</v>
       </c>
       <c r="E14" t="n">
-        <v>2.716</v>
+        <v>7.524</v>
       </c>
     </row>
     <row r="15">
@@ -713,55 +713,55 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>306.04</v>
+        <v>333.42</v>
       </c>
       <c r="D15" t="n">
-        <v>343.24</v>
+        <v>391.02</v>
       </c>
       <c r="E15" t="n">
-        <v>7.936</v>
+        <v>9.247999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>229.54</v>
+        <v>391.02</v>
       </c>
       <c r="D16" t="n">
-        <v>286.76</v>
+        <v>431.18</v>
       </c>
       <c r="E16" t="n">
-        <v>13.484</v>
+        <v>6.872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>343.24</v>
+        <v>373.34</v>
       </c>
       <c r="D17" t="n">
-        <v>386</v>
+        <v>438.64</v>
       </c>
       <c r="E17" t="n">
-        <v>4.8</v>
+        <v>5.156</v>
       </c>
     </row>
     <row r="18">
@@ -770,131 +770,131 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>291.7</v>
+        <v>438.64</v>
       </c>
       <c r="D18" t="n">
-        <v>347.46</v>
+        <v>492.14</v>
       </c>
       <c r="E18" t="n">
-        <v>8.504</v>
+        <v>1.916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>386</v>
+        <v>492.14</v>
       </c>
       <c r="D19" t="n">
-        <v>439.08</v>
+        <v>594.61</v>
       </c>
       <c r="E19" t="n">
-        <v>1.632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>439.08</v>
+        <v>334.14</v>
       </c>
       <c r="D20" t="n">
-        <v>537.22</v>
+        <v>371.36</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>6.304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>286.76</v>
+        <v>309.84</v>
       </c>
       <c r="D21" t="n">
-        <v>345.84</v>
+        <v>341.68</v>
       </c>
       <c r="E21" t="n">
-        <v>10.676</v>
+        <v>8.172000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>231.94</v>
+        <v>431.18</v>
       </c>
       <c r="D22" t="n">
-        <v>287.66</v>
+        <v>459.18</v>
       </c>
       <c r="E22" t="n">
-        <v>10.464</v>
+        <v>4.712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>287.66</v>
+        <v>448.68</v>
       </c>
       <c r="D23" t="n">
-        <v>343.58</v>
+        <v>525.3</v>
       </c>
       <c r="E23" t="n">
-        <v>6.992</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>343.58</v>
+        <v>341.68</v>
       </c>
       <c r="D24" t="n">
-        <v>377.42</v>
+        <v>380.54</v>
       </c>
       <c r="E24" t="n">
-        <v>4.748</v>
+        <v>5.416</v>
       </c>
     </row>
     <row r="25">
@@ -903,71 +903,71 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>499.14</v>
+        <v>380.54</v>
       </c>
       <c r="D25" t="n">
-        <v>532.14</v>
+        <v>440.02</v>
       </c>
       <c r="E25" t="n">
-        <v>0.556</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>532.14</v>
+        <v>371.36</v>
       </c>
       <c r="D26" t="n">
-        <v>632.33</v>
+        <v>405.84</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>3.496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>377.42</v>
+        <v>594.61</v>
       </c>
       <c r="D27" t="n">
-        <v>421.18</v>
+        <v>627.3099999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>1.992</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>421.18</v>
+        <v>440.02</v>
       </c>
       <c r="D28" t="n">
-        <v>503.9</v>
+        <v>526.5</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -975,116 +975,116 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>345.84</v>
+        <v>526.5</v>
       </c>
       <c r="D29" t="n">
-        <v>378.34</v>
+        <v>586.1</v>
       </c>
       <c r="E29" t="n">
-        <v>8.555999999999999</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>347.46</v>
+        <v>337.36</v>
       </c>
       <c r="D30" t="n">
-        <v>415.76</v>
+        <v>370.16</v>
       </c>
       <c r="E30" t="n">
-        <v>5.264</v>
+        <v>4.884</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>503.9</v>
+        <v>586.1</v>
       </c>
       <c r="D31" t="n">
-        <v>576.12</v>
+        <v>635.9</v>
       </c>
       <c r="E31" t="n">
-        <v>27.408</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>537.22</v>
+        <v>370.16</v>
       </c>
       <c r="D32" t="n">
-        <v>596.8200000000001</v>
+        <v>443.16</v>
       </c>
       <c r="E32" t="n">
-        <v>26.7</v>
+        <v>1.164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>596.8200000000001</v>
+        <v>443.16</v>
       </c>
       <c r="D33" t="n">
-        <v>651.2</v>
+        <v>507.83</v>
       </c>
       <c r="E33" t="n">
-        <v>23.892</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>576.12</v>
+        <v>635.9</v>
       </c>
       <c r="D34" t="n">
-        <v>635.3</v>
+        <v>684.76</v>
       </c>
       <c r="E34" t="n">
-        <v>25.12</v>
+        <v>21.084</v>
       </c>
     </row>
     <row r="35">
@@ -1093,74 +1093,74 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>378.34</v>
+        <v>405.84</v>
       </c>
       <c r="D35" t="n">
-        <v>418.24</v>
+        <v>444.92</v>
       </c>
       <c r="E35" t="n">
-        <v>5.696</v>
+        <v>1.208</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>653.42</v>
+        <v>444.92</v>
       </c>
       <c r="D36" t="n">
-        <v>707.72</v>
+        <v>548.9</v>
       </c>
       <c r="E36" t="n">
-        <v>26.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>415.76</v>
+        <v>507.83</v>
       </c>
       <c r="D37" t="n">
-        <v>464</v>
+        <v>553.23</v>
       </c>
       <c r="E37" t="n">
-        <v>2.58</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>635.3</v>
+        <v>459.18</v>
       </c>
       <c r="D38" t="n">
-        <v>679.58</v>
+        <v>506.38</v>
       </c>
       <c r="E38" t="n">
-        <v>22.312</v>
+        <v>2.632</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>418.24</v>
+        <v>548.9</v>
       </c>
       <c r="D39" t="n">
-        <v>455.56</v>
+        <v>607.84</v>
       </c>
       <c r="E39" t="n">
-        <v>3.104</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="40">
@@ -1188,33 +1188,33 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>455.56</v>
+        <v>607.84</v>
       </c>
       <c r="D40" t="n">
-        <v>520.22</v>
+        <v>654.9400000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.728</v>
+        <v>24.676</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>520.22</v>
+        <v>506.38</v>
       </c>
       <c r="D41" t="n">
-        <v>620.0599999999999</v>
+        <v>612.42</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1222,21 +1222,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>632.33</v>
+        <v>612.42</v>
       </c>
       <c r="D42" t="n">
-        <v>677.79</v>
+        <v>666.72</v>
       </c>
       <c r="E42" t="n">
-        <v>27.624</v>
+        <v>26.76</v>
       </c>
     </row>
   </sheetData>
